--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="348">
   <si>
     <t>Property</t>
   </si>
@@ -290,7 +290,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -943,6 +943,10 @@
   </si>
   <si>
     <t>Condition.stage.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4446,13 +4450,13 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4503,7 +4507,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4527,7 +4531,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4538,7 +4542,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4567,7 +4571,7 @@
         <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>138</v>
@@ -4620,7 +4624,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4644,7 +4648,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4655,11 +4659,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4681,10 +4685,10 @@
         <v>135</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>138</v>
@@ -4739,7 +4743,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -4774,7 +4778,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4800,10 +4804,10 @@
         <v>156</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4833,10 +4837,10 @@
         <v>205</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -4854,7 +4858,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -4863,7 +4867,7 @@
         <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>101</v>
@@ -4872,7 +4876,7 @@
         <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>166</v>
@@ -4889,7 +4893,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4912,13 +4916,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4969,7 +4973,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -4978,7 +4982,7 @@
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>101</v>
@@ -4993,7 +4997,7 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5004,7 +5008,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5030,10 +5034,10 @@
         <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5063,10 +5067,10 @@
         <v>205</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>78</v>
@@ -5084,7 +5088,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5108,7 +5112,7 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5119,7 +5123,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5145,13 +5149,13 @@
         <v>281</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5201,7 +5205,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5213,7 +5217,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5225,7 +5229,7 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5236,7 +5240,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5259,13 +5263,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5316,7 +5320,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5340,7 +5344,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5351,7 +5355,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5380,7 +5384,7 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>138</v>
@@ -5433,7 +5437,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5457,7 +5461,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5468,11 +5472,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5494,10 +5498,10 @@
         <v>135</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>138</v>
@@ -5552,7 +5556,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5587,7 +5591,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5613,10 +5617,10 @@
         <v>156</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5646,10 +5650,10 @@
         <v>205</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -5667,7 +5671,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5676,13 +5680,13 @@
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>186</v>
@@ -5691,10 +5695,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -5702,7 +5706,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5725,13 +5729,13 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5782,7 +5786,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -5791,7 +5795,7 @@
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>101</v>
@@ -5806,10 +5810,10 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -5817,7 +5821,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5840,16 +5844,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5899,7 +5903,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -5914,16 +5918,16 @@
         <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
